--- a/tests/data/cars_no_titles.xlsx
+++ b/tests/data/cars_no_titles.xlsx
@@ -563,37 +563,37 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="9" t="n">
-        <v>83.33333333333333</v>
+        <v>110</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>18.50225211517056</v>
+        <v>0</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>2.886666666666667</v>
+        <v>2.7475</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>0.4911551010967242</v>
+        <v>0.1803122292025695</v>
       </c>
       <c r="F5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="9" t="n">
-        <v>110</v>
+        <v>83.33333333333333</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>0</v>
+        <v>18.50225211517056</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>2.7475</v>
+        <v>2.886666666666667</v>
       </c>
       <c r="E6" s="9" t="n">
-        <v>0.1803122292025695</v>
+        <v>0.4911551010967242</v>
       </c>
       <c r="F6" s="3" t="n"/>
     </row>

--- a/tests/data/cars_no_titles.xlsx
+++ b/tests/data/cars_no_titles.xlsx
@@ -563,37 +563,37 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="9" t="n">
-        <v>110</v>
+        <v>83.33333333333333</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>0</v>
+        <v>18.50225211517056</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>2.7475</v>
+        <v>2.886666666666667</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>0.1803122292025695</v>
+        <v>0.4911551010967242</v>
       </c>
       <c r="F5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="9" t="n">
-        <v>83.33333333333333</v>
+        <v>110</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>18.50225211517056</v>
+        <v>0</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>2.886666666666667</v>
+        <v>2.7475</v>
       </c>
       <c r="E6" s="9" t="n">
-        <v>0.4911551010967242</v>
+        <v>0.1803122292025695</v>
       </c>
       <c r="F6" s="3" t="n"/>
     </row>

--- a/tests/data/cars_no_titles.xlsx
+++ b/tests/data/cars_no_titles.xlsx
@@ -481,7 +481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,37 +563,33 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="9" t="n">
-        <v>83.33333333333333</v>
-      </c>
-      <c r="C5" s="9" t="n">
-        <v>18.50225211517056</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C5" s="9" t="n"/>
       <c r="D5" s="9" t="n">
-        <v>2.886666666666667</v>
-      </c>
-      <c r="E5" s="9" t="n">
-        <v>0.4911551010967242</v>
-      </c>
+        <v>2.14</v>
+      </c>
+      <c r="E5" s="9" t="n"/>
       <c r="F5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B6" s="9" t="n">
-        <v>110</v>
+        <v>81.8</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>0</v>
+        <v>21.87235698318771</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>2.7475</v>
+        <v>2.3003</v>
       </c>
       <c r="E6" s="9" t="n">
-        <v>0.1803122292025695</v>
+        <v>0.5982073312080948</v>
       </c>
       <c r="F6" s="3" t="n"/>
     </row>
@@ -602,54 +598,72 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="n">
-        <v>112.6666666666667</v>
+        <v>131.6666666666667</v>
       </c>
       <c r="C7" s="9" t="n">
-        <v>9.291573243177568</v>
+        <v>37.52776749732568</v>
       </c>
       <c r="D7" s="9" t="n">
-        <v>3.371666666666667</v>
+        <v>2.755</v>
       </c>
       <c r="E7" s="9" t="n">
-        <v>0.1360453355809502</v>
+        <v>0.1281600561797629</v>
       </c>
       <c r="F7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" s="9" t="n">
-        <v>210</v>
+        <v>115.25</v>
       </c>
       <c r="C8" s="9" t="n">
-        <v>49.49747468305833</v>
+        <v>9.178779875342908</v>
       </c>
       <c r="D8" s="9" t="n">
-        <v>3.505</v>
+        <v>3.38875</v>
       </c>
       <c r="E8" s="9" t="n">
-        <v>0.0919238815542511</v>
+        <v>0.1162163929916946</v>
       </c>
       <c r="F8" s="3" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="inlineStr">
+      <c r="A9" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>209.2142857142857</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>50.97688551827051</v>
+      </c>
+      <c r="D9" s="9" t="n">
+        <v>3.999214285714287</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>0.7594047444769265</v>
+      </c>
+      <c r="F9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="inlineStr">
         <is>
           <t>Data from the infamous mtcars data set.</t>
         </is>
       </c>
-      <c r="B9" s="11" t="n"/>
-      <c r="C9" s="11" t="n"/>
-      <c r="D9" s="11" t="n"/>
-      <c r="E9" s="11" t="n"/>
+      <c r="B10" s="11" t="n"/>
+      <c r="C10" s="11" t="n"/>
+      <c r="D10" s="11" t="n"/>
+      <c r="E10" s="11" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
